--- a/data/trans_orig/IMC-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IMC-Estudios-trans_orig.xlsx
@@ -539,7 +539,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>IMC Adultos (tasa de respuesta: 96,87%)</t>
+          <t>Índice de Masa Corporal (IMC) medio de la población (tasa de respuesta: 96,87%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/IMC-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IMC-Estudios-trans_orig.xlsx
@@ -672,10 +672,10 @@
         <v>27.82909869809443</v>
       </c>
       <c r="G4" s="5" t="n">
-        <v>27.42130219620607</v>
+        <v>27.42130219620606</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>28.53044165396913</v>
+        <v>28.53044165396912</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>28.48666308086287</v>
@@ -687,7 +687,7 @@
         <v>27.18386252322088</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>28.11584986353106</v>
+        <v>28.11584986353107</v>
       </c>
       <c r="M4" s="5" t="n">
         <v>28.0858099436998</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>26.6240788315172</v>
+        <v>26.62741855134821</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>27.3246062440066</v>
+        <v>27.303156689103</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>27.27646866135037</v>
+        <v>27.27895755762277</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>27.46483328307279</v>
+        <v>27.43889849194577</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>27.14812949518538</v>
+        <v>27.16652479697362</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>28.24860361848985</v>
+        <v>28.21682611925278</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>28.12008388476449</v>
+        <v>28.11456978730686</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>27.73245662655348</v>
+        <v>27.71598412952564</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>27.00733367897636</v>
+        <v>27.00398122789156</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>27.91498928985901</v>
+        <v>27.90831024158988</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>27.81856295693805</v>
+        <v>27.83579179600491</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>27.70626043245457</v>
+        <v>27.70171508405697</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>27.16291833140354</v>
+        <v>27.13892914588464</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>27.8601551505585</v>
+        <v>27.84253743433989</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>27.95592601655171</v>
+        <v>27.95856702075399</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>28.18211728583048</v>
+        <v>28.18011017005497</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>27.68651601249583</v>
+        <v>27.69738857223166</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>28.83842883091674</v>
+        <v>28.81746938406986</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>28.92398072143228</v>
+        <v>28.88753385411798</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>28.26611876435067</v>
+        <v>28.27757974806315</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>27.37483517082047</v>
+        <v>27.37530744658503</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>28.32268813353392</v>
+        <v>28.33862164475116</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>28.36233335823874</v>
+        <v>28.36115632188193</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>28.1476467845481</v>
+        <v>28.15567340831029</v>
       </c>
     </row>
     <row r="7">
@@ -802,10 +802,10 @@
         <v>26.36382895930912</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>26.25027002423198</v>
+        <v>26.25027002423197</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>26.53231465273126</v>
+        <v>26.53231465273127</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>24.24299722694507</v>
@@ -829,7 +829,7 @@
         <v>25.78757095341438</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>26.05754631174436</v>
+        <v>26.05754631174437</v>
       </c>
     </row>
     <row r="8">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>25.46344020944313</v>
+        <v>25.46306069893595</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>26.17493788450176</v>
+        <v>26.18878498755775</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>26.06170880177426</v>
+        <v>26.05215492652581</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>26.32269588838394</v>
+        <v>26.30584592219943</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>24.03437148016969</v>
+        <v>24.03730977984905</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>25.06436872619013</v>
+        <v>25.0516882667274</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>25.05420855569171</v>
+        <v>25.08872905055612</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>25.34972387104893</v>
+        <v>25.37159566397894</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>24.81592640798064</v>
+        <v>24.81785646935273</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>25.70933734554547</v>
+        <v>25.72009734191384</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>25.64410524406086</v>
+        <v>25.63587606639804</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>25.92261160317936</v>
+        <v>25.92429544895929</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>25.786833649103</v>
+        <v>25.80215695475608</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>26.5327662294171</v>
+        <v>26.55613332136424</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>26.43971114517695</v>
+        <v>26.44147482285136</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>26.76782102130032</v>
+        <v>26.77437372865826</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>24.47116652740758</v>
+        <v>24.47211968372579</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>25.5313974960343</v>
+        <v>25.54088980694153</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>25.53166095106199</v>
+        <v>25.51869583930426</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>25.72947094959917</v>
+        <v>25.75922166113986</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>25.09322551637019</v>
+        <v>25.1066322990083</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>26.01276321374076</v>
+        <v>26.0147679517796</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>25.93286419588818</v>
+        <v>25.94092510313139</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>26.20246807292357</v>
+        <v>26.210465330439</v>
       </c>
     </row>
     <row r="10">
@@ -932,13 +932,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>25.65656650803498</v>
+        <v>25.65656650803497</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>26.0244640589451</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>25.86870218601995</v>
+        <v>25.86870218601996</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>26.0632508430988</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>25.36468210520222</v>
+        <v>25.38344628824049</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>25.72187878595244</v>
+        <v>25.71297635206737</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>25.51897663811497</v>
+        <v>25.54486084557754</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>25.76589309900763</v>
+        <v>25.77984785966166</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>23.20930375170217</v>
+        <v>23.20396958350127</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>23.38548769271163</v>
+        <v>23.40812080590613</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>23.95853465896921</v>
+        <v>23.92694614623139</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>24.3788452683194</v>
+        <v>24.39019355735322</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>24.4584708137456</v>
+        <v>24.44933944114288</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>24.65666119115882</v>
+        <v>24.64682071628244</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>24.85156260554871</v>
+        <v>24.84287608072686</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>25.15931073903604</v>
+        <v>25.14242863334504</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>25.94898134827664</v>
+        <v>25.96945068185489</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>26.3862785246976</v>
+        <v>26.41889917208928</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>26.21837068913873</v>
+        <v>26.24206839234672</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>26.42184429780006</v>
+        <v>26.3921324750843</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>24.00263019656384</v>
+        <v>23.98925009980778</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>24.070490196293</v>
+        <v>24.06935631066424</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>24.68501028526333</v>
+        <v>24.65858447453284</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>24.97138079775618</v>
+        <v>25.01277906858247</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>24.94015692623096</v>
+        <v>24.9539495966642</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>25.15512181299407</v>
+        <v>25.17256348068595</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>25.36509118701495</v>
+        <v>25.33387028741858</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>25.58169322714874</v>
+        <v>25.56672166371581</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>26.47989311386468</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>26.64225406977444</v>
+        <v>26.64225406977443</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>25.37284301998116</v>
@@ -1092,16 +1092,16 @@
         <v>25.8971788378192</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>25.69216337234278</v>
+        <v>25.69216337234279</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>26.45586207786715</v>
+        <v>26.45586207786714</v>
       </c>
       <c r="M13" s="5" t="n">
         <v>26.23198541727231</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>26.26196417902477</v>
+        <v>26.26196417902478</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>25.8825628801429</v>
+        <v>25.89392568810148</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>26.5196335099632</v>
+        <v>26.50701084082357</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>26.35025756071112</v>
+        <v>26.33993903325703</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>26.48331778240518</v>
+        <v>26.48341138061811</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>25.19688129933321</v>
+        <v>25.21477379017806</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>26.07412505039874</v>
+        <v>26.08157048654591</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>25.79790030077364</v>
+        <v>25.81286941233523</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>25.75036211034481</v>
+        <v>25.75049040748603</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>25.58523023227892</v>
+        <v>25.58957797962626</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>26.33653136173325</v>
+        <v>26.34185749802146</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>26.12006536744081</v>
+        <v>26.120274343901</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>26.15129963922419</v>
+        <v>26.15348374426764</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>26.14279962000755</v>
+        <v>26.15624490840193</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>26.80448157355289</v>
+        <v>26.79861365906489</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>26.63030241241277</v>
+        <v>26.64195342173425</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>26.80562108882359</v>
+        <v>26.80213571886919</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>25.53336641246815</v>
+        <v>25.53234440215237</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>26.43494411287084</v>
+        <v>26.4428828722953</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>26.15954197185964</v>
+        <v>26.18362189625971</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>26.03849130252317</v>
+        <v>26.03845950304352</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>25.80364230237548</v>
+        <v>25.80132165647278</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>26.56572847631013</v>
+        <v>26.56620155312331</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>26.35980652390833</v>
+        <v>26.35259499231101</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>26.38231089086191</v>
+        <v>26.38745569201971</v>
       </c>
     </row>
     <row r="16">
